--- a/biology/Zoologie/Acanthodactylus_gongrorhynchatus/Acanthodactylus_gongrorhynchatus.xlsx
+++ b/biology/Zoologie/Acanthodactylus_gongrorhynchatus/Acanthodactylus_gongrorhynchatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthodactylus gongrorhynchatus est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthodactylus gongrorhynchatus est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'est de l'Arabie saoudite et aux Émirats arabes unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'est de l'Arabie saoudite et aux Émirats arabes unis.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Leviton &amp; Anderson, 1967 : Survey of the reptiles of the Sheikdom of Abu Dhabi, Arabian Peninsula. Part II. Systematic account of the collection of reptiles made in the Sheikdom of Abu Daby by John Gasperetti. Proceedings of the California Academy of Sciences, ser. 4, vol. 35, p. 157-192 (texte intégral).</t>
         </is>
